--- a/biology/Neurosciences/Nerf_érecteur/Nerf_érecteur.xlsx
+++ b/biology/Neurosciences/Nerf_érecteur/Nerf_érecteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_%C3%A9recteur</t>
+          <t>Nerf_érecteur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nerf érecteur est issu des racines S2-S3-S4, il sort par les foramens sacraux antérieurs. Il fait partie du système parasympathique[1]. Il appartient de plus au plexus hypogastrique inférieur (constitué du système sympathique via les nerfs hypogastriques). Il apporte donc une afférence parasympathique à ce plexus.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf érecteur est issu des racines S2-S3-S4, il sort par les foramens sacraux antérieurs. Il fait partie du système parasympathique. Il appartient de plus au plexus hypogastrique inférieur (constitué du système sympathique via les nerfs hypogastriques). Il apporte donc une afférence parasympathique à ce plexus.
 Ces nerfs ne sont pas destinés uniquement au phénomène de l'érection, comme par exemple la contraction du détrusor vésical lors de la miction.
 </t>
         </is>
